--- a/LEVEL/Jyskboy_level_editor.xlsx
+++ b/LEVEL/Jyskboy_level_editor.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5551496B-C099-4A5E-BF48-41B95BC337EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C328FD-0D01-4540-A866-919FA0ED9290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Room1" sheetId="2" r:id="rId2"/>
-    <sheet name="export" sheetId="3" r:id="rId3"/>
+    <sheet name="Room2" sheetId="4" r:id="rId3"/>
+    <sheet name="Room2 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="export" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -418,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517545D4-B386-4C94-9718-9FCF624F73AC}">
   <dimension ref="E10:EB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BA34" sqref="BA34"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15510,6 +15512,6920 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ADF474-7503-48D8-90AE-A3FA85A64D96}">
+  <dimension ref="E10:AE56"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ58" sqref="AQ58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="60" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="131" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="270" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" ref="E41:E56" si="0">_xlfn.CONCAT("{",E10,",")</f>
+        <v>{1,</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ref="F41:BQ44" si="1">_xlfn.CONCAT(F10,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AD41" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="AE41" t="str">
+        <f>_xlfn.CONCAT(EB10,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="AE42" t="str">
+        <f>_xlfn.CONCAT(EB11,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AD43" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="AE43" t="str">
+        <f>_xlfn.CONCAT(EB12,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="44" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="AE44" t="str">
+        <f>_xlfn.CONCAT(EB13,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" ref="F45:BQ48" si="2">_xlfn.CONCAT(F14,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AD45" t="str">
+        <f t="shared" si="2"/>
+        <v>1,</v>
+      </c>
+      <c r="AE45" t="str">
+        <f>_xlfn.CONCAT(EB14,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" si="2"/>
+        <v>1,</v>
+      </c>
+      <c r="AE46" t="str">
+        <f>_xlfn.CONCAT(EB15,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="47" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AD47" t="str">
+        <f t="shared" si="2"/>
+        <v>1,</v>
+      </c>
+      <c r="AE47" t="str">
+        <f>_xlfn.CONCAT(EB16,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="48" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="AD48" t="str">
+        <f t="shared" si="2"/>
+        <v>1,</v>
+      </c>
+      <c r="AE48" t="str">
+        <f>_xlfn.CONCAT(EB17,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="49" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ref="F49:BQ52" si="3">_xlfn.CONCAT(F18,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AD49" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="AE49" t="str">
+        <f>_xlfn.CONCAT(EB18,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="50" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AD50" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="AE50" t="str">
+        <f>_xlfn.CONCAT(EB19,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="51" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AC51" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AD51" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="AE51" t="str">
+        <f>_xlfn.CONCAT(EB20,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="52" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="AD52" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="AE52" t="str">
+        <f>_xlfn.CONCAT(EB21,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="53" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ref="F53:BQ56" si="4">_xlfn.CONCAT(F22,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AC53" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AD53" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AE53" t="str">
+        <f>_xlfn.CONCAT(EB22,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="54" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AA54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AB54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AD54" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AE54" t="str">
+        <f>_xlfn.CONCAT(EB23,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="55" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AA55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AB55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" si="4"/>
+        <v>0,</v>
+      </c>
+      <c r="AD55" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AE55" t="str">
+        <f>_xlfn.CONCAT(EB24,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="56" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AA56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AD56" t="str">
+        <f t="shared" si="4"/>
+        <v>1,</v>
+      </c>
+      <c r="AE56" t="str">
+        <f>_xlfn.CONCAT(EB25,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214D2446-D63B-46C1-89FE-F5E26B8F2335}">
+  <dimension ref="E10:Z56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="60" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="131" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="270" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" ref="E41:E56" si="0">_xlfn.CONCAT("{",E10,",")</f>
+        <v>{1,</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" ref="F41:BQ51" si="1">_xlfn.CONCAT(F10,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z41" t="str">
+        <f>_xlfn.CONCAT(EB10,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="42" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z42" t="str">
+        <f>_xlfn.CONCAT(EB11,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="43" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z43" t="str">
+        <f>_xlfn.CONCAT(EB12,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="44" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z44" t="str">
+        <f>_xlfn.CONCAT(EB13,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="45" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z45" t="str">
+        <f>_xlfn.CONCAT(EB14,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="46" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z46" t="str">
+        <f>_xlfn.CONCAT(EB15,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="47" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z47" t="str">
+        <f>_xlfn.CONCAT(EB16,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="48" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z48" t="str">
+        <f>_xlfn.CONCAT(EB17,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="49" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z49" t="str">
+        <f>_xlfn.CONCAT(EB18,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="50" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Z50" t="str">
+        <f>_xlfn.CONCAT(EB19,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="51" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ref="K51:BV51" si="2">_xlfn.CONCAT(K20,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="2"/>
+        <v>1,</v>
+      </c>
+      <c r="Z51" t="str">
+        <f>_xlfn.CONCAT(EB20,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="52" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" ref="F52:BQ56" si="3">_xlfn.CONCAT(F21,",")</f>
+        <v>0,</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Z52" t="str">
+        <f>_xlfn.CONCAT(EB21,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="53" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Z53" t="str">
+        <f>_xlfn.CONCAT(EB22,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="54" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Z54" t="str">
+        <f>_xlfn.CONCAT(EB23,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="55" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="3"/>
+        <v>0,</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Z55" t="str">
+        <f>_xlfn.CONCAT(EB24,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="56" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="3"/>
+        <v>1,</v>
+      </c>
+      <c r="Z56" t="str">
+        <f>_xlfn.CONCAT(EB25,"},")</f>
+        <v>},</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DW10:DW25">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DV10:DV25">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY10:CY25">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE10:DE25">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ10:CZ25">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD10:DD25">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DD18:EA25 EB18:EB24 S10:DC25">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA10:DA25">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DX10:DX25">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY10:DY25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DZ10:DZ25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA10:EA25 EB10:EB24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:EB25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC493AB-919C-46E2-940B-31C6044E6030}">
   <dimension ref="A1"/>
   <sheetViews>
